--- a/Problems/Chromium/Book1.xlsx
+++ b/Problems/Chromium/Book1.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kashif.atiq\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
   <si>
     <t>13, 2, 5</t>
   </si>
@@ -296,13 +291,94 @@
   </si>
   <si>
     <t>1,6,9</t>
+  </si>
+  <si>
+    <t>2,3,1,6,7</t>
+  </si>
+  <si>
+    <t>3,6,7</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,3,6</t>
+  </si>
+  <si>
+    <t>1,3,7</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>1,3,6,9</t>
+  </si>
+  <si>
+    <t>1,3,7,9</t>
+  </si>
+  <si>
+    <t>1,7,9</t>
+  </si>
+  <si>
+    <t>9,3,1,6,7</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
+  <si>
+    <t>3,4,8</t>
+  </si>
+  <si>
+    <t>6,4,3,8,5</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>3,6,8</t>
+  </si>
+  <si>
+    <t>3,5,6</t>
+  </si>
+  <si>
+    <t>3,4,5,6,8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,8 +445,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +463,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,11 +480,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -450,15 +539,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,22 +547,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -569,7 +653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,28 +865,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -830,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -893,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -910,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -933,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -953,7 +1037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="C10" s="1">
         <v>145</v>
       </c>
@@ -967,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="C11" s="1">
         <v>1456</v>
       </c>
@@ -981,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="C12" s="1">
         <v>156</v>
       </c>
@@ -995,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="C13" s="1">
         <v>2</v>
       </c>
@@ -1009,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="C14" s="1">
         <v>26</v>
       </c>
@@ -1026,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="C15" s="1">
         <v>24</v>
       </c>
@@ -1043,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="C16" s="1">
         <v>245</v>
       </c>
@@ -1060,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8">
       <c r="C17" s="1">
         <v>25</v>
       </c>
@@ -1080,7 +1164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8">
       <c r="C18" s="1">
         <v>256</v>
       </c>
@@ -1088,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8">
       <c r="C19" s="1">
         <v>4</v>
       </c>
@@ -1099,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8">
       <c r="C20" s="1">
         <v>46</v>
       </c>
@@ -1110,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8">
       <c r="C21" s="1">
         <v>45</v>
       </c>
@@ -1121,7 +1205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8">
       <c r="C22" s="1">
         <v>5</v>
       </c>
@@ -1135,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8">
       <c r="C23" s="1">
         <v>56</v>
       </c>
@@ -1143,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8">
       <c r="C24" s="1">
         <v>6</v>
       </c>
@@ -1154,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8">
       <c r="D25">
         <v>4</v>
       </c>
@@ -1162,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8">
       <c r="D26">
         <v>4</v>
       </c>
@@ -1173,12 +1257,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8">
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8">
       <c r="D28">
         <v>5</v>
       </c>
@@ -1192,31 +1276,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:12">
       <c r="J2" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:12">
       <c r="J5" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:12">
       <c r="F6">
         <v>9</v>
       </c>
@@ -1236,127 +1320,127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:12">
       <c r="J7" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:12">
       <c r="J8" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:12">
       <c r="J9" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:12">
       <c r="J10" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:12">
       <c r="J11" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:12">
       <c r="J12" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:12">
       <c r="J13" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:12">
       <c r="J14" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:12">
       <c r="J15" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:12">
       <c r="J16" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10">
       <c r="J17" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10">
       <c r="J18" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:10">
       <c r="J19" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:10">
       <c r="J20" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:10">
       <c r="J21" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:10">
       <c r="J22" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:10">
       <c r="J23" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:10">
       <c r="J24" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:10">
       <c r="J25" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:10">
       <c r="J26" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:10">
       <c r="J27" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:10">
       <c r="J28" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:10">
       <c r="J29" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:10">
       <c r="J30" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:10">
       <c r="J31" s="17" t="s">
         <v>86</v>
       </c>
@@ -1370,34 +1454,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="9" max="9" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="5.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="2"/>
     <col min="20" max="20" width="5.42578125" style="3" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="18.75">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>4</v>
@@ -1425,7 +1509,7 @@
       <c r="T3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="14" customFormat="1" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1480,36 +1564,39 @@
         <f>SUM(R4,N4,J4,F4,B4)</f>
         <v>18</v>
       </c>
+      <c r="V4" s="14">
+        <v>23</v>
+      </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="I5" s="20" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="I5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="M5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="Q5" s="23" t="s">
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="Q5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1523,7 +1610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1534,7 +1621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -1542,51 +1629,81 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
       <c r="N9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
       <c r="J10" t="s">
         <v>28</v>
       </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
       <c r="N10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
       <c r="N11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
       <c r="N12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
       <c r="N13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
+      <c r="M14" s="2">
+        <v>6</v>
+      </c>
       <c r="N14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75">
       <c r="A18" s="13"/>
       <c r="B18" s="6">
         <v>13</v>
@@ -1608,7 +1725,7 @@
       <c r="T18" s="15"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75">
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
@@ -1647,26 +1764,29 @@
         <f>SUM(R19,N19,J19,F19,B19)</f>
         <v>4</v>
       </c>
+      <c r="V19" s="14">
+        <v>7</v>
+      </c>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:24" ht="31.5" customHeight="1">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="E20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="I20" s="23" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="I20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="F21" t="s">
         <v>1</v>
       </c>
@@ -1674,22 +1794,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="F22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="F23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75">
       <c r="A27" s="13"/>
       <c r="B27" s="6">
         <v>13</v>
@@ -1714,7 +1834,7 @@
       <c r="T27" s="15"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
@@ -1756,29 +1876,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:24" ht="32.25" customHeight="1">
+      <c r="A29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="E29" s="22" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="E29" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="I29" s="22" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="M29" s="23" t="s">
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="F30" t="s">
         <v>1</v>
       </c>
@@ -1789,7 +1909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="F31" t="s">
         <v>2</v>
       </c>
@@ -1797,7 +1917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="F32" t="s">
         <v>40</v>
       </c>
@@ -1805,45 +1925,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="F33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
       <c r="F34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75">
       <c r="B39" s="6">
         <v>3</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="21"/>
       <c r="F39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="24"/>
+      <c r="H39" s="21"/>
       <c r="J39" s="6">
         <v>65</v>
       </c>
-      <c r="L39" s="24"/>
+      <c r="L39" s="21"/>
       <c r="N39" s="6">
         <v>8</v>
       </c>
-      <c r="P39" s="24"/>
+      <c r="P39" s="21"/>
       <c r="R39" s="6">
         <v>2</v>
       </c>
-      <c r="T39" s="24"/>
+      <c r="T39" s="21"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1890,40 +2010,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="27" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A41" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="22" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="22" t="s">
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="22" t="s">
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="22" t="s">
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="25"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="22"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +2057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -1948,7 +2068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -1956,37 +2076,37 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24">
       <c r="R45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24">
       <c r="A47" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75">
       <c r="B49" s="6">
         <v>5</v>
       </c>
-      <c r="D49" s="24"/>
+      <c r="D49" s="21"/>
       <c r="F49" s="6">
         <v>4</v>
       </c>
-      <c r="H49" s="24"/>
+      <c r="H49" s="21"/>
       <c r="J49" s="6">
         <v>8</v>
       </c>
-      <c r="L49" s="24"/>
+      <c r="L49" s="21"/>
       <c r="N49" s="6">
         <v>9</v>
       </c>
-      <c r="P49" s="24"/>
+      <c r="P49" s="21"/>
       <c r="R49" s="6">
         <v>1</v>
       </c>
-      <c r="T49" s="24"/>
+      <c r="T49" s="21"/>
       <c r="V49" s="6">
         <v>6</v>
       </c>
@@ -1995,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50" s="2" t="s">
         <v>22</v>
       </c>
@@ -2036,7 +2156,7 @@
         <v>63</v>
       </c>
       <c r="R50" s="17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S50" t="s">
         <v>64</v>
@@ -2054,50 +2174,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="27" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A51" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="22" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="22" t="s">
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="22" t="s">
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="20" t="s">
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="22" t="s">
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="22" t="s">
+      <c r="Y51" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+    </row>
+    <row r="52" spans="1:27">
       <c r="B52" t="s">
         <v>68</v>
       </c>
@@ -2107,11 +2227,11 @@
       <c r="J52" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="R52" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R52" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="B53" t="s">
         <v>69</v>
       </c>
@@ -2119,10 +2239,10 @@
         <v>54</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="B54" t="s">
         <v>20</v>
       </c>
@@ -2130,133 +2250,535 @@
         <v>70</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="F55" t="s">
         <v>23</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="F56" t="s">
         <v>71</v>
       </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
       <c r="R56" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="F57" t="s">
         <v>72</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="R58" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="R59" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="R60" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="R61" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="R62" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="R63" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="R64" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="R65" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="R66" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="R67" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="R68" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="R69" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="R70" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="R71" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="R72" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="R73" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="R74" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="R75" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="15.75">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6">
+        <v>2</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
+        <v>3</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6">
+        <v>1</v>
+      </c>
+      <c r="K78" s="6"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6">
+        <v>9</v>
+      </c>
+      <c r="O78" s="6"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6">
+        <v>1</v>
+      </c>
+      <c r="S78" s="6"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6">
+        <v>6</v>
+      </c>
+      <c r="W78" s="6"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J79" s="17">
+        <v>8</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" s="17">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R79" s="17">
+        <v>25</v>
+      </c>
+      <c r="S79" t="s">
+        <v>64</v>
+      </c>
+      <c r="U79" t="s">
+        <v>63</v>
+      </c>
+      <c r="W79" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="V80" s="26"/>
+      <c r="W80" s="26"/>
+      <c r="Y80" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z80" s="26"/>
+      <c r="AA80" s="26"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" t="s">
+        <v>93</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R81" s="17"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>94</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="R82" s="17"/>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R59" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R60" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R61" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R62" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R63" s="17" t="s">
+      <c r="R83" s="17"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="J84" t="s">
+        <v>97</v>
+      </c>
+      <c r="R84" s="17"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="J85" t="s">
+        <v>98</v>
+      </c>
+      <c r="R85" s="17"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="J86" t="s">
+        <v>99</v>
+      </c>
+      <c r="R86" s="17"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="J87" t="s">
+        <v>100</v>
+      </c>
+      <c r="R87" s="17"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="J88" t="s">
+        <v>101</v>
+      </c>
+      <c r="R88" s="17"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R89" s="17"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="R90" s="17"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="J91" s="17">
+        <v>1</v>
+      </c>
+      <c r="R91" s="17"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="I92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J92" s="17">
+        <v>10</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R92" s="17"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="J93" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="R93" s="17"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="J94" t="s">
+        <v>96</v>
+      </c>
+      <c r="R94" s="17"/>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="J95" t="s">
+        <v>75</v>
+      </c>
+      <c r="R95" s="17"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="J96" t="s">
+        <v>12</v>
+      </c>
+      <c r="R96" s="17"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="J97" t="s">
+        <v>97</v>
+      </c>
+      <c r="R97" s="17"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="J98" t="s">
+        <v>98</v>
+      </c>
+      <c r="R98" s="17"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="J99" t="s">
+        <v>103</v>
+      </c>
+      <c r="R99" s="17"/>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="J100" t="s">
+        <v>99</v>
+      </c>
+      <c r="R100" s="17"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="J101" t="s">
+        <v>104</v>
+      </c>
+      <c r="R101" s="17"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="J102" t="s">
+        <v>89</v>
+      </c>
+      <c r="R102" s="17"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="J103" t="s">
+        <v>105</v>
+      </c>
+      <c r="R103" s="17"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R104" s="17"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="J105" s="17">
+        <v>3</v>
+      </c>
+      <c r="R105" s="17"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="I106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J106" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R64" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R65" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R66" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R67" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R68" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R69" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R70" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R71" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R72" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R73" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R74" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R75" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R76" s="17" t="s">
-        <v>86</v>
+      <c r="K106" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="J107" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="J108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="J109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="J110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="J111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="J112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="29" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="31">
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="U80:W80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="M41:O41"/>
     <mergeCell ref="U51:W51"/>
     <mergeCell ref="Y51:AA51"/>
     <mergeCell ref="Q41:S41"/>
@@ -2266,26 +2788,14 @@
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="M51:O51"/>
     <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:K20"/>
   </mergeCells>
-  <conditionalFormatting sqref="R52:R76">
+  <conditionalFormatting sqref="R52:R75">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R81:R105">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Problems/Chromium/Book1.xlsx
+++ b/Problems/Chromium/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" tabRatio="249" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
   <si>
     <t>13, 2, 5</t>
   </si>
@@ -372,6 +372,21 @@
   </si>
   <si>
     <t>3,4,5,6,8</t>
+  </si>
+  <si>
+    <t>4,5,8,9</t>
+  </si>
+  <si>
+    <t>5,6,65,4,45,46,465</t>
+  </si>
+  <si>
+    <t>5,2,25,6,65,62,625,4,45,42,425,46,465,462,4625</t>
+  </si>
+  <si>
+    <t>5,2,25,6,65,625,4,45,465</t>
+  </si>
+  <si>
+    <t>62,42,425,46,462,4625</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -547,6 +562,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,7 +575,9 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -865,7 +883,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1458,7 +1476,7 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,11 +1485,15 @@
     <col min="4" max="4" width="4.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="11" max="11" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="33.42578125" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" style="3" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" style="3" customWidth="1"/>
   </cols>
@@ -1570,31 +1592,31 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="E5" s="25" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="E5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="I5" s="27" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="M5" s="25" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="M5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="Q5" s="28" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="Q5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="1:24">
       <c r="B6" t="s">
@@ -1606,6 +1628,9 @@
       <c r="N6" t="s">
         <v>6</v>
       </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -1620,6 +1645,9 @@
       <c r="N7" t="s">
         <v>12</v>
       </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:24">
       <c r="J8" t="s">
@@ -1628,6 +1656,14 @@
       <c r="N8" t="s">
         <v>10</v>
       </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:24">
       <c r="I9" s="2">
@@ -1642,6 +1678,14 @@
       <c r="N9" t="s">
         <v>11</v>
       </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:24">
       <c r="I10" s="1">
@@ -1657,7 +1701,10 @@
         <v>9</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1673,6 +1720,12 @@
       <c r="N11" t="s">
         <v>30</v>
       </c>
+      <c r="O11">
+        <v>45</v>
+      </c>
+      <c r="R11">
+        <v>425</v>
+      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="M12" s="2">
@@ -1681,13 +1734,24 @@
       <c r="N12" t="s">
         <v>13</v>
       </c>
+      <c r="O12">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:24">
+      <c r="E13" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="M13" s="1">
         <v>5</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
+      </c>
+      <c r="O13">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1696,6 +1760,9 @@
       </c>
       <c r="N14" t="s">
         <v>32</v>
+      </c>
+      <c r="O14">
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1770,21 +1837,21 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="E20" s="27" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="E20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="I20" s="28" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="I20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:24">
       <c r="F21" t="s">
@@ -1877,26 +1944,26 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="32.25" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="E29" s="25" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="E29" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="I29" s="25" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="I29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="M29" s="28" t="s">
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="M29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:24">
       <c r="F30" t="s">
@@ -2011,35 +2078,35 @@
       </c>
     </row>
     <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="25" t="s">
+      <c r="M41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="25" t="s">
+      <c r="Q41" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
       <c r="T41" s="22"/>
       <c r="X41" s="3"/>
     </row>
@@ -2175,47 +2242,47 @@
       </c>
     </row>
     <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="25" t="s">
+      <c r="I51" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="25" t="s">
+      <c r="M51" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="27" t="s">
+      <c r="Q51" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
       <c r="T51" s="22"/>
-      <c r="U51" s="25" t="s">
+      <c r="U51" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="25" t="s">
+      <c r="Y51" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
     </row>
     <row r="52" spans="1:27">
       <c r="B52" t="s">
@@ -2276,8 +2343,14 @@
       <c r="F57" t="s">
         <v>72</v>
       </c>
+      <c r="Q57" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="R57" s="17" t="s">
         <v>12</v>
+      </c>
+      <c r="S57" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -2480,46 +2553,46 @@
       </c>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="22"/>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="27" t="s">
+      <c r="I80" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
       <c r="L80" s="23"/>
-      <c r="M80" s="25" t="s">
+      <c r="M80" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
       <c r="P80" s="22"/>
-      <c r="Q80" s="27" t="s">
+      <c r="Q80" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
       <c r="T80" s="22"/>
-      <c r="U80" s="25" t="s">
+      <c r="U80" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="V80" s="26"/>
-      <c r="W80" s="26"/>
-      <c r="Y80" s="25" t="s">
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="Y80" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="Z80" s="26"/>
-      <c r="AA80" s="26"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
     </row>
     <row r="81" spans="1:18">
       <c r="B81" t="s">
@@ -2751,12 +2824,30 @@
       </c>
     </row>
     <row r="117" spans="10:10">
-      <c r="J117" s="29" t="s">
+      <c r="J117" s="25" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="M80:O80"/>
     <mergeCell ref="Q80:S80"/>
     <mergeCell ref="U80:W80"/>
@@ -2767,27 +2858,12 @@
     <mergeCell ref="A80:C80"/>
     <mergeCell ref="E80:G80"/>
     <mergeCell ref="I80:K80"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="I41:K41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="Q51:S51"/>
   </mergeCells>
   <conditionalFormatting sqref="R52:R75">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/Problems/Chromium/Book1.xlsx
+++ b/Problems/Chromium/Book1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="131">
   <si>
     <t>13, 2, 5</t>
   </si>
@@ -387,6 +387,33 @@
   </si>
   <si>
     <t>62,42,425,46,462,4625</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>2/0</t>
+  </si>
+  <si>
+    <t>5,9,6</t>
+  </si>
+  <si>
+    <t>5,8,6</t>
+  </si>
+  <si>
+    <t>5,8,9</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>13,5,7</t>
   </si>
 </sst>
 </file>
@@ -563,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,9 +603,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -883,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1475,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1498,12 +1525,12 @@
     <col min="24" max="24" width="7.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:27" s="9" customFormat="1" ht="18.75">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>4</v>
@@ -1531,7 +1558,7 @@
       <c r="T3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="4" spans="1:27" s="14" customFormat="1" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1590,35 +1617,38 @@
         <v>23</v>
       </c>
       <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="AA4" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="31.5" customHeight="1">
+      <c r="A5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="I5" s="28" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="I5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="M5" s="26" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="M5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="Q5" s="29" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="Q5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1635,7 +1665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:27">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1649,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:27">
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -1659,16 +1689,13 @@
       <c r="O8">
         <v>4</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="I9" s="2">
-        <v>4</v>
-      </c>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="J9" t="s">
         <v>15</v>
       </c>
@@ -1681,22 +1708,17 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="I10" s="1">
-        <v>5</v>
-      </c>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="I10" s="1"/>
       <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="2">
-        <v>2</v>
-      </c>
       <c r="N10" t="s">
         <v>9</v>
       </c>
@@ -1707,16 +1729,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="I11" s="2">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:27">
       <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="1">
-        <v>5</v>
-      </c>
+      <c r="M11" s="1"/>
       <c r="N11" t="s">
         <v>30</v>
       </c>
@@ -1727,10 +1744,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="M12" s="2">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:27">
       <c r="N12" t="s">
         <v>13</v>
       </c>
@@ -1738,15 +1752,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="E13" s="30" t="s">
+    <row r="13" spans="1:27">
+      <c r="E13" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="M13" s="1">
-        <v>5</v>
-      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="M13" s="1"/>
       <c r="N13" t="s">
         <v>31</v>
       </c>
@@ -1754,10 +1766,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="M14" s="2">
-        <v>6</v>
-      </c>
+    <row r="14" spans="1:27">
       <c r="N14" t="s">
         <v>32</v>
       </c>
@@ -1765,7 +1774,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1837,21 +1846,21 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="E20" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="I20" s="29" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="I20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:24">
       <c r="F21" t="s">
@@ -1944,28 +1953,31 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="32.25" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="E29" s="26" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="E29" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="I29" s="26" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="I29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="M29" s="29" t="s">
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="M29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" spans="1:24">
+      <c r="E30">
+        <v>7</v>
+      </c>
       <c r="F30" t="s">
         <v>1</v>
       </c>
@@ -1977,6 +1989,9 @@
       </c>
     </row>
     <row r="31" spans="1:24">
+      <c r="E31">
+        <v>5</v>
+      </c>
       <c r="F31" t="s">
         <v>2</v>
       </c>
@@ -1985,6 +2000,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
+      <c r="E32">
+        <v>13</v>
+      </c>
       <c r="F32" t="s">
         <v>40</v>
       </c>
@@ -1993,13 +2011,24 @@
       </c>
     </row>
     <row r="33" spans="1:24">
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:24">
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
       <c r="F34" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="E35" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2076,37 +2105,40 @@
       <c r="S40" t="s">
         <v>22</v>
       </c>
+      <c r="U40">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="26" t="s">
+      <c r="Q41" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
       <c r="T41" s="22"/>
       <c r="X41" s="3"/>
     </row>
@@ -2229,7 +2261,10 @@
         <v>64</v>
       </c>
       <c r="U50" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
       </c>
       <c r="W50" t="s">
         <v>22</v>
@@ -2237,57 +2272,63 @@
       <c r="Y50" t="s">
         <v>66</v>
       </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
       <c r="AA50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="26" t="s">
+      <c r="I51" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="26" t="s">
+      <c r="M51" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="28" t="s">
+      <c r="Q51" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
       <c r="T51" s="22"/>
-      <c r="U51" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
+      <c r="U51" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="26" t="s">
+      <c r="Y51" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
     </row>
     <row r="52" spans="1:27">
       <c r="B52" t="s">
         <v>68</v>
       </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
       <c r="F52" t="s">
         <v>18</v>
       </c>
@@ -2296,39 +2337,66 @@
       </c>
       <c r="R52" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="V52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:27">
       <c r="B53" t="s">
         <v>69</v>
       </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
       <c r="F53" t="s">
         <v>54</v>
       </c>
       <c r="R53" s="17" t="s">
         <v>11</v>
+      </c>
+      <c r="V53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA53">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:27">
       <c r="B54" t="s">
         <v>20</v>
       </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
       <c r="F54" t="s">
         <v>70</v>
       </c>
       <c r="R54" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="AA54">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:27">
+      <c r="E55">
+        <v>5</v>
+      </c>
       <c r="F55" t="s">
         <v>23</v>
       </c>
       <c r="R55" s="17" t="s">
         <v>75</v>
       </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:27">
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
       <c r="F56" t="s">
         <v>71</v>
       </c>
@@ -2338,8 +2406,14 @@
       <c r="R56" s="17" t="s">
         <v>6</v>
       </c>
+      <c r="AA56">
+        <v>24</v>
+      </c>
     </row>
     <row r="57" spans="1:27">
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
       <c r="F57" t="s">
         <v>72</v>
       </c>
@@ -2352,8 +2426,14 @@
       <c r="S57" t="s">
         <v>17</v>
       </c>
+      <c r="AA57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:27">
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
@@ -2362,24 +2442,42 @@
       </c>
       <c r="S58">
         <v>18</v>
+      </c>
+      <c r="AA58">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:27">
       <c r="R59" s="17" t="s">
         <v>87</v>
       </c>
+      <c r="AA59">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:27">
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
       <c r="R60" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:27">
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
       <c r="R61" s="17" t="s">
         <v>82</v>
       </c>
+      <c r="AA61">
+        <v>49</v>
+      </c>
     </row>
     <row r="62" spans="1:27">
+      <c r="E62" t="s">
+        <v>125</v>
+      </c>
       <c r="R62" s="17" t="s">
         <v>9</v>
       </c>
@@ -2393,8 +2491,14 @@
       <c r="R64" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="AA64">
+        <v>40</v>
+      </c>
     </row>
     <row r="65" spans="1:27">
+      <c r="F65">
+        <v>10</v>
+      </c>
       <c r="R65" s="17" t="s">
         <v>83</v>
       </c>
@@ -2553,46 +2657,46 @@
       </c>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="22"/>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="28" t="s">
+      <c r="I80" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
       <c r="L80" s="23"/>
-      <c r="M80" s="26" t="s">
+      <c r="M80" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
       <c r="P80" s="22"/>
-      <c r="Q80" s="28" t="s">
+      <c r="Q80" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
       <c r="T80" s="22"/>
-      <c r="U80" s="26" t="s">
+      <c r="U80" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="V80" s="27"/>
-      <c r="W80" s="27"/>
-      <c r="Y80" s="26" t="s">
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="Y80" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="27"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
     </row>
     <row r="81" spans="1:18">
       <c r="B81" t="s">
@@ -2830,24 +2934,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="M80:O80"/>
     <mergeCell ref="Q80:S80"/>
     <mergeCell ref="U80:W80"/>
@@ -2864,6 +2950,24 @@
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="I41:K41"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="M41:O41"/>
   </mergeCells>
   <conditionalFormatting sqref="R52:R75">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/Problems/Chromium/Book1.xlsx
+++ b/Problems/Chromium/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" tabRatio="249" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t>13, 2, 5</t>
   </si>
@@ -374,9 +374,6 @@
     <t>3,4,5,6,8</t>
   </si>
   <si>
-    <t>4,5,8,9</t>
-  </si>
-  <si>
     <t>5,6,65,4,45,46,465</t>
   </si>
   <si>
@@ -414,6 +411,15 @@
   </si>
   <si>
     <t>13,5,7</t>
+  </si>
+  <si>
+    <t>5,4,8,6,2</t>
+  </si>
+  <si>
+    <t>2,4,5,6,8</t>
+  </si>
+  <si>
+    <t>5,4,8</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -603,6 +609,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,7 +919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1500,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,11 +1698,11 @@
       <c r="O8">
         <v>4</v>
       </c>
-      <c r="Q8" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="Q8" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
     </row>
     <row r="9" spans="1:27">
       <c r="J9" t="s">
@@ -1708,11 +1717,11 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="Q9" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+      <c r="Q9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:27">
       <c r="I10" s="1"/>
@@ -1726,7 +1735,7 @@
         <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1751,13 +1760,16 @@
       <c r="O12">
         <v>65</v>
       </c>
+      <c r="R12">
+        <v>245</v>
+      </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="E13" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
         <v>31</v>
@@ -2012,7 +2024,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="E33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -2020,7 +2032,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="E34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
@@ -2028,12 +2040,15 @@
     </row>
     <row r="35" spans="1:24">
       <c r="E35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75">
@@ -2311,7 +2326,7 @@
       <c r="S51" s="28"/>
       <c r="T51" s="22"/>
       <c r="U51" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V51" s="28"/>
       <c r="W51" s="28"/>
@@ -2335,11 +2350,14 @@
       <c r="J52" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="R52" s="17" t="s">
+      <c r="Q52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R52" s="26" t="s">
         <v>10</v>
       </c>
       <c r="V52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -2352,11 +2370,11 @@
       <c r="F53" t="s">
         <v>54</v>
       </c>
-      <c r="R53" s="17" t="s">
+      <c r="R53" s="26" t="s">
         <v>11</v>
       </c>
       <c r="V53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA53">
         <v>3</v>
@@ -2372,7 +2390,10 @@
       <c r="F54" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="17" t="s">
+      <c r="Q54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R54" s="26" t="s">
         <v>74</v>
       </c>
       <c r="AA54">
@@ -2386,7 +2407,10 @@
       <c r="F55" t="s">
         <v>23</v>
       </c>
-      <c r="R55" s="17" t="s">
+      <c r="Q55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="26" t="s">
         <v>75</v>
       </c>
       <c r="AA55">
@@ -2403,7 +2427,7 @@
       <c r="G56">
         <v>3</v>
       </c>
-      <c r="R56" s="17" t="s">
+      <c r="R56" s="26" t="s">
         <v>6</v>
       </c>
       <c r="AA56">
@@ -2417,14 +2441,8 @@
       <c r="F57" t="s">
         <v>72</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="R57" s="17" t="s">
+      <c r="R57" s="26" t="s">
         <v>12</v>
-      </c>
-      <c r="S57" t="s">
-        <v>17</v>
       </c>
       <c r="AA57">
         <v>2</v>
@@ -2437,18 +2455,18 @@
       <c r="F58" t="s">
         <v>19</v>
       </c>
-      <c r="R58" s="17" t="s">
+      <c r="Q58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R58" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S58">
-        <v>18</v>
-      </c>
       <c r="AA58">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:27">
-      <c r="R59" s="17" t="s">
+      <c r="R59" s="26" t="s">
         <v>87</v>
       </c>
       <c r="AA59">
@@ -2457,17 +2475,17 @@
     </row>
     <row r="60" spans="1:27">
       <c r="E60" t="s">
-        <v>126</v>
-      </c>
-      <c r="R60" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="R60" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:27">
       <c r="E61" t="s">
-        <v>127</v>
-      </c>
-      <c r="R61" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="R61" s="26" t="s">
         <v>82</v>
       </c>
       <c r="AA61">
@@ -2476,480 +2494,466 @@
     </row>
     <row r="62" spans="1:27">
       <c r="E62" t="s">
-        <v>125</v>
-      </c>
-      <c r="R62" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="R62" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:27">
-      <c r="R63" s="17" t="s">
+      <c r="R63" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:27">
-      <c r="R64" s="17" t="s">
+      <c r="R64" s="26" t="s">
         <v>81</v>
       </c>
       <c r="AA64">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="6:18">
       <c r="F65">
         <v>10</v>
       </c>
-      <c r="R65" s="17" t="s">
+      <c r="R65" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
-      <c r="R66" s="17" t="s">
+    <row r="66" spans="6:18">
+      <c r="R66" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
-      <c r="R67" s="17" t="s">
+    <row r="67" spans="6:18">
+      <c r="R67" s="26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
-      <c r="R68" s="17" t="s">
+    <row r="68" spans="6:18">
+      <c r="R68" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
-      <c r="R69" s="17" t="s">
+    <row r="69" spans="6:18">
+      <c r="R69" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
-      <c r="R70" s="17" t="s">
+    <row r="70" spans="6:18">
+      <c r="R70" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
-      <c r="R71" s="17" t="s">
+    <row r="71" spans="6:18">
+      <c r="R71" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
-      <c r="R72" s="17" t="s">
+    <row r="72" spans="6:18">
+      <c r="R72" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
-      <c r="R73" s="17" t="s">
+    <row r="73" spans="6:18">
+      <c r="R73" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
-      <c r="R74" s="17" t="s">
+    <row r="74" spans="6:18">
+      <c r="R74" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
-      <c r="R75" s="17" t="s">
+    <row r="75" spans="6:18">
+      <c r="R75" s="26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
-      <c r="A77" s="2" t="s">
+    <row r="81" spans="1:27">
+      <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15.75">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6">
-        <v>2</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
+    <row r="82" spans="1:27" ht="15.75">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6">
         <v>3</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6">
-        <v>1</v>
-      </c>
-      <c r="K78" s="6"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6">
+      <c r="G82" s="6"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6">
+        <v>1</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6">
         <v>9</v>
       </c>
-      <c r="O78" s="6"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6">
-        <v>1</v>
-      </c>
-      <c r="S78" s="6"/>
-      <c r="T78" s="21"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6">
+      <c r="O82" s="6"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6">
+        <v>1</v>
+      </c>
+      <c r="S82" s="6"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6">
         <v>6</v>
       </c>
-      <c r="W78" s="6"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA78" s="6"/>
-    </row>
-    <row r="79" spans="1:27">
-      <c r="A79" s="2" t="s">
+      <c r="W82" s="6"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" t="s">
+      <c r="B83" s="17"/>
+      <c r="C83" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" t="s">
+      <c r="F83" s="17"/>
+      <c r="G83" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J83" s="17">
         <v>8</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N83" s="17">
         <v>0</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O83" t="s">
         <v>22</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="Q83" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R79" s="17">
+      <c r="R83" s="26">
         <v>25</v>
       </c>
-      <c r="S79" t="s">
+      <c r="S83" t="s">
         <v>64</v>
       </c>
-      <c r="U79" t="s">
+      <c r="U83" t="s">
         <v>63</v>
       </c>
-      <c r="W79" t="s">
+      <c r="W83" t="s">
         <v>22</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Y83" t="s">
         <v>66</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AA83" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
-      <c r="A80" s="28" t="s">
+    <row r="84" spans="1:27">
+      <c r="A84" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="28" t="s">
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="29" t="s">
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="27" t="s">
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="29" t="s">
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="27" t="s">
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="Y80" s="27" t="s">
+      <c r="V84" s="28"/>
+      <c r="W84" s="28"/>
+      <c r="Y84" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="B81" t="s">
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="B85" t="s">
         <v>56</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F85" t="s">
         <v>93</v>
       </c>
-      <c r="J81" s="19" t="s">
+      <c r="J85" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="R81" s="17"/>
-    </row>
-    <row r="82" spans="1:18">
-      <c r="B82" t="s">
+      <c r="R85" s="26"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="B86" t="s">
         <v>17</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F86" t="s">
         <v>94</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J86" t="s">
         <v>6</v>
       </c>
-      <c r="R82" s="17"/>
-    </row>
-    <row r="83" spans="1:18">
-      <c r="B83" t="s">
+      <c r="R86" s="26"/>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="B87" t="s">
         <v>40</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J87" t="s">
         <v>12</v>
       </c>
-      <c r="R83" s="17"/>
-    </row>
-    <row r="84" spans="1:18">
-      <c r="J84" t="s">
+      <c r="R87" s="26"/>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="J88" t="s">
         <v>97</v>
       </c>
-      <c r="R84" s="17"/>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="J85" t="s">
+      <c r="R88" s="26"/>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="J89" t="s">
         <v>98</v>
       </c>
-      <c r="R85" s="17"/>
-    </row>
-    <row r="86" spans="1:18">
-      <c r="J86" t="s">
+      <c r="R89" s="26"/>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="J90" t="s">
         <v>99</v>
       </c>
-      <c r="R86" s="17"/>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="J87" t="s">
+      <c r="R90" s="26"/>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="J91" t="s">
         <v>100</v>
       </c>
-      <c r="R87" s="17"/>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="J88" t="s">
+      <c r="R91" s="17"/>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="J92" t="s">
         <v>101</v>
       </c>
-      <c r="R88" s="17"/>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="2" t="s">
+      <c r="R92" s="17"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R89" s="17"/>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="R90" s="17"/>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="J91" s="17">
-        <v>1</v>
-      </c>
-      <c r="R91" s="17"/>
-    </row>
-    <row r="92" spans="1:18">
-      <c r="I92" s="2" t="s">
+      <c r="R93" s="17"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="R94" s="17"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="J95" s="17">
+        <v>1</v>
+      </c>
+      <c r="R95" s="17"/>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="I96" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J96" s="17">
         <v>10</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R92" s="17"/>
-    </row>
-    <row r="93" spans="1:18">
-      <c r="J93" s="20" t="s">
+      <c r="R96" s="17"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="J97" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="R93" s="17"/>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="J94" t="s">
-        <v>96</v>
-      </c>
-      <c r="R94" s="17"/>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="J95" t="s">
-        <v>75</v>
-      </c>
-      <c r="R95" s="17"/>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="J96" t="s">
-        <v>12</v>
-      </c>
-      <c r="R96" s="17"/>
-    </row>
-    <row r="97" spans="1:18">
-      <c r="J97" t="s">
-        <v>97</v>
       </c>
       <c r="R97" s="17"/>
     </row>
     <row r="98" spans="1:18">
       <c r="J98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R98" s="17"/>
     </row>
     <row r="99" spans="1:18">
       <c r="J99" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="R99" s="17"/>
     </row>
     <row r="100" spans="1:18">
       <c r="J100" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="R100" s="17"/>
     </row>
     <row r="101" spans="1:18">
       <c r="J101" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R101" s="17"/>
     </row>
     <row r="102" spans="1:18">
       <c r="J102" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R102" s="17"/>
     </row>
     <row r="103" spans="1:18">
       <c r="J103" t="s">
+        <v>103</v>
+      </c>
+      <c r="R103" s="17"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="J104" t="s">
+        <v>99</v>
+      </c>
+      <c r="R104" s="17"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="J105" t="s">
+        <v>104</v>
+      </c>
+      <c r="R105" s="17"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="J106" t="s">
+        <v>89</v>
+      </c>
+      <c r="R106" s="17"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="J107" t="s">
         <v>105</v>
       </c>
-      <c r="R103" s="17"/>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="2" t="s">
+      <c r="R107" s="17"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R104" s="17"/>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="J105" s="17">
+      <c r="R108" s="17"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="J109" s="17">
         <v>3</v>
       </c>
-      <c r="R105" s="17"/>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="I106" s="2" t="s">
+      <c r="R109" s="17"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="I110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J110" s="17">
         <v>9</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
-      <c r="J107" s="20" t="s">
+    <row r="111" spans="1:18">
+      <c r="J111" s="20" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="J108" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="J109" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="J110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="J111" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="J112" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="10:10">
       <c r="J113" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="10:10">
       <c r="J114" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="10:10">
       <c r="J115" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="10:10">
       <c r="J116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="10:10">
-      <c r="J117" s="25" t="s">
+    <row r="121" spans="10:10">
+      <c r="J121" s="25" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="U80:W80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="M41:O41"/>
     <mergeCell ref="U51:W51"/>
     <mergeCell ref="Y51:AA51"/>
     <mergeCell ref="Q41:S41"/>
@@ -2966,13 +2970,27 @@
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="M51:O51"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="I41:K41"/>
   </mergeCells>
   <conditionalFormatting sqref="R52:R75">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R81:R105">
+  <conditionalFormatting sqref="R85:R109">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Problems/Chromium/Book1.xlsx
+++ b/Problems/Chromium/Book1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="134">
   <si>
     <t>13, 2, 5</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>5,4,8</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -597,6 +600,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1511,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1525,7 +1537,7 @@
     <col min="12" max="12" width="5.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="2"/>
     <col min="18" max="18" width="33.42578125" customWidth="1"/>
@@ -1631,31 +1643,31 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="E5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="I5" s="29" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="I5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="M5" s="27" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="M5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="Q5" s="30" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="Q5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
     </row>
     <row r="6" spans="1:27">
       <c r="B6" t="s">
@@ -1698,30 +1710,27 @@
       <c r="O8">
         <v>4</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" spans="1:27">
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="1">
-        <v>3</v>
-      </c>
       <c r="N9" t="s">
         <v>11</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="1:27">
       <c r="I10" s="1"/>
@@ -1765,11 +1774,11 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
         <v>31</v>
@@ -1784,6 +1793,17 @@
       </c>
       <c r="O14">
         <v>625</v>
+      </c>
+      <c r="R14" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="Q15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1858,21 +1878,21 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="E20" s="29" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="E20" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="I20" s="30" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="I20" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:24">
       <c r="F21" t="s">
@@ -1965,26 +1985,26 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="32.25" customHeight="1">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="E29" s="27" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="E29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="I29" s="27" t="s">
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="I29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="M29" s="30" t="s">
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="M29" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
     </row>
     <row r="30" spans="1:24">
       <c r="E30">
@@ -2125,35 +2145,35 @@
       </c>
     </row>
     <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="27" t="s">
+      <c r="M41" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="27" t="s">
+      <c r="Q41" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
       <c r="T41" s="22"/>
       <c r="X41" s="3"/>
     </row>
@@ -2295,47 +2315,47 @@
       </c>
     </row>
     <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="27" t="s">
+      <c r="M51" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="29" t="s">
+      <c r="Q51" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
       <c r="T51" s="22"/>
-      <c r="U51" s="27" t="s">
+      <c r="U51" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="27" t="s">
+      <c r="Y51" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
     </row>
     <row r="52" spans="1:27">
       <c r="B52" t="s">
@@ -2675,46 +2695,46 @@
       </c>
     </row>
     <row r="84" spans="1:27">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="22"/>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="29" t="s">
+      <c r="I84" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
       <c r="L84" s="23"/>
-      <c r="M84" s="27" t="s">
+      <c r="M84" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
       <c r="P84" s="22"/>
-      <c r="Q84" s="29" t="s">
+      <c r="Q84" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
       <c r="T84" s="22"/>
-      <c r="U84" s="27" t="s">
+      <c r="U84" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="Y84" s="27" t="s">
+      <c r="V84" s="31"/>
+      <c r="W84" s="31"/>
+      <c r="Y84" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
+      <c r="Z84" s="31"/>
+      <c r="AA84" s="31"/>
     </row>
     <row r="85" spans="1:27">
       <c r="B85" t="s">
@@ -2789,12 +2809,35 @@
       <c r="R94" s="17"/>
     </row>
     <row r="95" spans="1:27">
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
       <c r="J95" s="17">
         <v>1</v>
       </c>
-      <c r="R95" s="17"/>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="R95" s="17">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="1:27">
+      <c r="A96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>92</v>
+      </c>
       <c r="I96" s="2" t="s">
         <v>102</v>
       </c>
@@ -2807,6 +2850,12 @@
       <c r="R96" s="17"/>
     </row>
     <row r="97" spans="1:18">
+      <c r="B97" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="J97" s="20" t="s">
         <v>95</v>
       </c>
@@ -2952,16 +3001,9 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="M41:O41"/>
     <mergeCell ref="U51:W51"/>
     <mergeCell ref="Y51:AA51"/>
     <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="Q8:S8"/>
@@ -2970,6 +3012,13 @@
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="M51:O51"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="M41:O41"/>
     <mergeCell ref="M84:O84"/>
     <mergeCell ref="Q84:S84"/>
     <mergeCell ref="U84:W84"/>

--- a/Problems/Chromium/Book1.xlsx
+++ b/Problems/Chromium/Book1.xlsx
@@ -2,14 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" tabRatio="249" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" tabRatio="249" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2 (2)" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="134">
-  <si>
-    <t>13, 2, 5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="132">
   <si>
     <t>2,13</t>
   </si>
@@ -45,9 +41,6 @@
   </si>
   <si>
     <t>1,2,4</t>
-  </si>
-  <si>
-    <t>1,2,4,5,6</t>
   </si>
   <si>
     <t>1,2,5</t>
@@ -536,7 +529,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -614,10 +607,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -626,13 +625,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -931,7 +944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -939,592 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>125</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1256</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" s="1">
-        <v>145</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="1">
-        <v>1456</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="C12" s="1">
-        <v>156</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="C14" s="1">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" s="1">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" s="1">
-        <v>245</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="1">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="1">
-        <v>256</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="1">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="1">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="1">
-        <v>56</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F2:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="6:12">
-      <c r="J2" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="6:12">
-      <c r="J5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="6:12">
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="6:12">
-      <c r="J7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="6:12">
-      <c r="J8" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="6:12">
-      <c r="J9" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="6:12">
-      <c r="J10" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="6:12">
-      <c r="J11" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="6:12">
-      <c r="J12" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="6:12">
-      <c r="J13" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="6:12">
-      <c r="J14" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="6:12">
-      <c r="J15" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="6:12">
-      <c r="J16" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10">
-      <c r="J22" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10">
-      <c r="J23" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10">
-      <c r="J24" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10">
-      <c r="J25" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10">
-      <c r="J26" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="10:10">
-      <c r="J27" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="10:10">
-      <c r="J28" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="10:10">
-      <c r="J29" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="10:10">
-      <c r="J30" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10">
-      <c r="J31" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J7:J33">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1548,7 +980,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="9" customFormat="1" ht="18.75">
@@ -1581,27 +1013,27 @@
     </row>
     <row r="4" spans="1:27" s="14" customFormat="1" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="18">
         <v>6</v>
@@ -1611,7 +1043,7 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" s="18">
         <v>9</v>
@@ -1627,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="14">
@@ -1643,58 +1075,58 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="E5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="I5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="M5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="E5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="I5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="M5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="Q5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="Q5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="1:27">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -1702,58 +1134,58 @@
     </row>
     <row r="8" spans="1:27">
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
-      <c r="Q8" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="Q8" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
     </row>
     <row r="9" spans="1:27">
       <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="Q9" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
+      <c r="Q9" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="1:27">
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O10">
         <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="J11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11">
         <v>45</v>
@@ -1764,7 +1196,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="N12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O12">
         <v>65</v>
@@ -1774,14 +1206,14 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="E13" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="E13" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O13">
         <v>465</v>
@@ -1789,7 +1221,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="N14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O14">
         <v>625</v>
@@ -1800,7 +1232,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="Q15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S15">
         <v>5</v>
@@ -1808,7 +1240,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75">
@@ -1835,13 +1267,13 @@
     </row>
     <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75">
       <c r="A19" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="18">
         <v>0</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="14">
@@ -1861,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="13"/>
@@ -1878,43 +1310,43 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="E20" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="I20" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="A20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="E20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="I20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:24">
       <c r="F21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="F22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="F23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75">
@@ -1944,13 +1376,13 @@
     </row>
     <row r="28" spans="1:24" ht="15.75">
       <c r="A28" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="18">
         <v>0</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>13</v>
@@ -1959,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I28" s="2">
         <v>13</v>
@@ -1977,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U28" s="14">
         <f>SUM(R28,N28,J28,F28,B28)</f>
@@ -1985,39 +1417,39 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="32.25" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="E29" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="I29" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="M29" s="33" t="s">
+      <c r="A29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="E29" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="I29" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="M29" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:24">
       <c r="E30">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2025,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2036,39 +1468,39 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
         <v>40</v>
-      </c>
-      <c r="J32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="E33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="E34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="E35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75">
@@ -2096,31 +1528,31 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="17">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" s="17">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J40" s="17">
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M40" s="2">
         <v>65</v>
@@ -2129,95 +1561,95 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R40" s="17">
         <v>4</v>
       </c>
       <c r="S40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U40">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A41" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
+      <c r="E41" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
+      <c r="I41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
+      <c r="M41" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
+      <c r="Q41" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
       <c r="T41" s="22"/>
       <c r="X41" s="3"/>
     </row>
     <row r="42" spans="1:24">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" t="s">
         <v>53</v>
       </c>
-      <c r="N42" t="s">
-        <v>55</v>
-      </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="R45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75">
@@ -2251,13 +1683,13 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
@@ -2266,10 +1698,10 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J50" s="17">
         <v>1</v>
@@ -2278,123 +1710,123 @@
         <v>9</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N50" s="17">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R50" s="17">
         <v>24</v>
       </c>
       <c r="S50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V50">
         <v>2</v>
       </c>
       <c r="W50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z50">
         <v>5</v>
       </c>
       <c r="AA50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
+      <c r="A51" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
+      <c r="E51" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
+      <c r="I51" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
+      <c r="M51" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="32" t="s">
+      <c r="Q51" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
     </row>
     <row r="52" spans="1:27">
       <c r="B52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R52" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:27">
       <c r="B53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E53">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA53">
         <v>3</v>
@@ -2402,19 +1834,19 @@
     </row>
     <row r="54" spans="1:27">
       <c r="B54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R54" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA54">
         <v>7</v>
@@ -2425,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R55" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA55">
         <v>1</v>
@@ -2439,16 +1871,16 @@
     </row>
     <row r="56" spans="1:27">
       <c r="E56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
       <c r="R56" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA56">
         <v>24</v>
@@ -2456,13 +1888,13 @@
     </row>
     <row r="57" spans="1:27">
       <c r="E57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R57" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA57">
         <v>2</v>
@@ -2470,16 +1902,16 @@
     </row>
     <row r="58" spans="1:27">
       <c r="E58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R58" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA58">
         <v>5</v>
@@ -2487,7 +1919,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="R59" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA59">
         <v>7</v>
@@ -2495,18 +1927,18 @@
     </row>
     <row r="60" spans="1:27">
       <c r="E60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R60" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:27">
       <c r="E61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R61" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA61">
         <v>49</v>
@@ -2514,20 +1946,20 @@
     </row>
     <row r="62" spans="1:27">
       <c r="E62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R62" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:27">
       <c r="R63" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:27">
       <c r="R64" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA64">
         <v>40</v>
@@ -2538,62 +1970,62 @@
         <v>10</v>
       </c>
       <c r="R65" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="6:18">
       <c r="R66" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="6:18">
       <c r="R67" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="6:18">
       <c r="R68" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="6:18">
       <c r="R69" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="6:18">
       <c r="R70" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="6:18">
       <c r="R71" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="6:18">
       <c r="R72" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="6:18">
       <c r="R73" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="6:18">
       <c r="R74" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="6:18">
       <c r="R75" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:27" ht="15.75">
@@ -2641,167 +2073,167 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J83" s="17">
         <v>8</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N83" s="17">
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R83" s="26">
         <v>25</v>
       </c>
       <c r="S83" t="s">
+        <v>62</v>
+      </c>
+      <c r="U83" t="s">
+        <v>61</v>
+      </c>
+      <c r="W83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y83" t="s">
         <v>64</v>
       </c>
-      <c r="U83" t="s">
+      <c r="AA83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="W83" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
-      <c r="A84" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="32" t="s">
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="V84" s="34"/>
+      <c r="W84" s="34"/>
+      <c r="Y84" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="V84" s="31"/>
-      <c r="W84" s="31"/>
-      <c r="Y84" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z84" s="31"/>
-      <c r="AA84" s="31"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
     </row>
     <row r="85" spans="1:27">
       <c r="B85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R85" s="26"/>
     </row>
     <row r="86" spans="1:27">
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R86" s="26"/>
     </row>
     <row r="87" spans="1:27">
       <c r="B87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R87" s="26"/>
     </row>
     <row r="88" spans="1:27">
       <c r="J88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R88" s="26"/>
     </row>
     <row r="89" spans="1:27">
       <c r="J89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R89" s="26"/>
     </row>
     <row r="90" spans="1:27">
       <c r="J90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R90" s="26"/>
     </row>
     <row r="91" spans="1:27">
       <c r="J91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R91" s="17"/>
     </row>
     <row r="92" spans="1:27">
       <c r="J92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R92" s="17"/>
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R93" s="17"/>
     </row>
@@ -2827,103 +2259,103 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J96" s="17">
         <v>10</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R96" s="17"/>
     </row>
     <row r="97" spans="1:18">
       <c r="B97" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R97" s="17"/>
     </row>
     <row r="98" spans="1:18">
       <c r="J98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R98" s="17"/>
     </row>
     <row r="99" spans="1:18">
       <c r="J99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R99" s="17"/>
     </row>
     <row r="100" spans="1:18">
       <c r="J100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R100" s="17"/>
     </row>
     <row r="101" spans="1:18">
       <c r="J101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R101" s="17"/>
     </row>
     <row r="102" spans="1:18">
       <c r="J102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R102" s="17"/>
     </row>
     <row r="103" spans="1:18">
       <c r="J103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R103" s="17"/>
     </row>
     <row r="104" spans="1:18">
       <c r="J104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R104" s="17"/>
     </row>
     <row r="105" spans="1:18">
       <c r="J105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R105" s="17"/>
     </row>
     <row r="106" spans="1:18">
       <c r="J106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R106" s="17"/>
     </row>
     <row r="107" spans="1:18">
       <c r="J107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R107" s="17"/>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R108" s="17"/>
     </row>
@@ -2935,90 +2367,72 @@
     </row>
     <row r="110" spans="1:18">
       <c r="I110" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J110" s="17">
         <v>9</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="J111" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="J112" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="10:10">
       <c r="J113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="10:10">
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="10:10">
       <c r="J115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="10:10">
       <c r="J116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="10:10">
       <c r="J117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="10:10">
       <c r="J118" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="10:10">
       <c r="J119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="10:10">
       <c r="J120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="10:10">
       <c r="J121" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="M41:O41"/>
     <mergeCell ref="M84:O84"/>
     <mergeCell ref="Q84:S84"/>
     <mergeCell ref="U84:W84"/>
@@ -3035,6 +2449,1400 @@
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="I41:K41"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R52:R75">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R85:R109">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AA121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="18.75">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="F3" s="9">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9">
+        <v>5</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" s="14" customFormat="1" ht="15.75">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="18">
+        <v>6</v>
+      </c>
+      <c r="K4" s="16">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="18">
+        <v>9</v>
+      </c>
+      <c r="O4" s="14">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="13">
+        <v>6</v>
+      </c>
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="14">
+        <f>SUM(R4,N4,J4,F4,B4)</f>
+        <v>18</v>
+      </c>
+      <c r="V4" s="14">
+        <v>23</v>
+      </c>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="24" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="E5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="I5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="M5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="Q5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="I10" s="1"/>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="M13" s="1"/>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="32"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75">
+      <c r="A18" s="13"/>
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="13"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="13"/>
+      <c r="T18" s="15"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75">
+      <c r="A19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14">
+        <v>13</v>
+      </c>
+      <c r="F19" s="18">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14">
+        <v>5</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="13">
+        <v>13</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="13"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="13"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="14">
+        <f>SUM(R19,N19,J19,F19,B19)</f>
+        <v>4</v>
+      </c>
+      <c r="V19" s="14">
+        <v>7</v>
+      </c>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="25.5" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="E20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="I20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75">
+      <c r="A27" s="13"/>
+      <c r="B27" s="6">
+        <v>13</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="6">
+        <v>7</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="13"/>
+      <c r="T27" s="15"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75">
+      <c r="A28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28" s="32">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="2">
+        <v>13</v>
+      </c>
+      <c r="J28" s="32">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>7</v>
+      </c>
+      <c r="M28" s="2">
+        <v>13</v>
+      </c>
+      <c r="N28" s="32">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="14">
+        <f>SUM(R28,N28,J28,F28,B28)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="32.25" customHeight="1">
+      <c r="A29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="E29" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="I29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="M29" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75">
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="F39" s="6">
+        <v>4</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="J39" s="6">
+        <v>65</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="N39" s="6">
+        <v>8</v>
+      </c>
+      <c r="P39" s="21"/>
+      <c r="R39" s="6">
+        <v>2</v>
+      </c>
+      <c r="T39" s="21"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="32">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="32">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="32">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="2">
+        <v>65</v>
+      </c>
+      <c r="N40" s="32">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="32">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A41" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="22"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" t="s">
+        <v>53</v>
+      </c>
+      <c r="R42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="R43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="R44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="R45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75">
+      <c r="B49" s="6">
+        <v>5</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="F49" s="6">
+        <v>4</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="J49" s="6">
+        <v>8</v>
+      </c>
+      <c r="L49" s="21"/>
+      <c r="N49" s="6">
+        <v>9</v>
+      </c>
+      <c r="P49" s="21"/>
+      <c r="R49" s="6">
+        <v>1</v>
+      </c>
+      <c r="T49" s="21"/>
+      <c r="V49" s="6">
+        <v>6</v>
+      </c>
+      <c r="X49" s="4"/>
+      <c r="Z49" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="32">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="32">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="32">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>9</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="32">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R50" s="32">
+        <v>24</v>
+      </c>
+      <c r="S50" t="s">
+        <v>62</v>
+      </c>
+      <c r="U50" t="s">
+        <v>71</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A51" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R52" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+      <c r="R53" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="V53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+      <c r="R54" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+      <c r="R56" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="F57" t="s">
+        <v>70</v>
+      </c>
+      <c r="R57" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="R59" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="R60" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="R61" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="R62" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="R63" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="R64" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18">
+      <c r="R65" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="18:18">
+      <c r="R66" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="18:18">
+      <c r="R67" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="18:18">
+      <c r="R68" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="18:18">
+      <c r="R69" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="18:18">
+      <c r="R70" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="18:18">
+      <c r="R71" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="18:18">
+      <c r="R72" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="18:18">
+      <c r="R73" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="18:18">
+      <c r="R74" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="18:18">
+      <c r="R75" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="15.75">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6">
+        <v>3</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6">
+        <v>1</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6">
+        <v>9</v>
+      </c>
+      <c r="O82" s="6"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6">
+        <v>1</v>
+      </c>
+      <c r="S82" s="6"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6">
+        <v>6</v>
+      </c>
+      <c r="W82" s="6"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="32"/>
+      <c r="G83" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J83" s="32">
+        <v>8</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="32">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R83" s="32">
+        <v>25</v>
+      </c>
+      <c r="S83" t="s">
+        <v>62</v>
+      </c>
+      <c r="U83" t="s">
+        <v>61</v>
+      </c>
+      <c r="W83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="V84" s="34"/>
+      <c r="W84" s="34"/>
+      <c r="Y84" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="R85" s="32"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86" t="s">
+        <v>5</v>
+      </c>
+      <c r="R86" s="32"/>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" t="s">
+        <v>10</v>
+      </c>
+      <c r="R87" s="32"/>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="J88" t="s">
+        <v>95</v>
+      </c>
+      <c r="R88" s="32"/>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="J89" t="s">
+        <v>96</v>
+      </c>
+      <c r="R89" s="32"/>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="J90" t="s">
+        <v>97</v>
+      </c>
+      <c r="R90" s="32"/>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="J91" t="s">
+        <v>98</v>
+      </c>
+      <c r="R91" s="32"/>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="J92" t="s">
+        <v>99</v>
+      </c>
+      <c r="R92" s="32"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R93" s="32"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="R94" s="32"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="J95" s="32">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="R95" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J96" s="32">
+        <v>10</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R96" s="32"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="B97" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J97" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R97" s="32"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="J98" t="s">
+        <v>94</v>
+      </c>
+      <c r="R98" s="32"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="J99" t="s">
+        <v>73</v>
+      </c>
+      <c r="R99" s="32"/>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="J100" t="s">
+        <v>10</v>
+      </c>
+      <c r="R100" s="32"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="J101" t="s">
+        <v>95</v>
+      </c>
+      <c r="R101" s="32"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="J102" t="s">
+        <v>96</v>
+      </c>
+      <c r="R102" s="32"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="J103" t="s">
+        <v>101</v>
+      </c>
+      <c r="R103" s="32"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="J104" t="s">
+        <v>97</v>
+      </c>
+      <c r="R104" s="32"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="J105" t="s">
+        <v>102</v>
+      </c>
+      <c r="R105" s="32"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="J106" t="s">
+        <v>87</v>
+      </c>
+      <c r="R106" s="32"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="J107" t="s">
+        <v>103</v>
+      </c>
+      <c r="R107" s="32"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R108" s="32"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="J109" s="32">
+        <v>3</v>
+      </c>
+      <c r="R109" s="32"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="I110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J110" s="32">
+        <v>9</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="J111" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="J112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="R52:R75">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/Problems/Chromium/Book1.xlsx
+++ b/Problems/Chromium/Book1.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Test\Problems\Chromium\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12135" tabRatio="249" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="249" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2 (2)" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -421,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,10 +618,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -625,10 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -944,14 +949,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA121"/>
   <sheetViews>
@@ -959,7 +964,7 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="3" customWidth="1"/>
@@ -978,12 +983,12 @@
     <col min="24" max="24" width="7.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:27" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>4</v>
@@ -1011,7 +1016,7 @@
       <c r="T3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:27" s="14" customFormat="1" ht="15.75">
+    <row r="4" spans="1:27" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1074,34 +1079,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="E5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="I5" s="37" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="I5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="M5" s="33" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="M5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="Q5" s="35" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="Q5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>12</v>
       </c>
@@ -1142,13 +1147,13 @@
       <c r="O8">
         <v>4</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="Q8" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>13</v>
       </c>
@@ -1158,13 +1163,13 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q9" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I10" s="1"/>
       <c r="J10" t="s">
         <v>26</v>
@@ -1179,7 +1184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N12" t="s">
         <v>11</v>
       </c>
@@ -1205,12 +1210,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="E13" s="36" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E13" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
         <v>29</v>
@@ -1219,7 +1224,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>30</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q15" s="2" t="s">
         <v>131</v>
       </c>
@@ -1238,12 +1243,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="6">
         <v>13</v>
@@ -1265,7 +1270,7 @@
       <c r="T18" s="15"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1309,24 +1314,24 @@
       </c>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="E20" s="37" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="E20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="I20" s="35" t="s">
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="I20" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>0</v>
       </c>
@@ -1334,22 +1339,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="6">
         <v>13</v>
@@ -1374,7 +1379,7 @@
       <c r="T27" s="15"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75">
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
@@ -1416,29 +1421,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="32.25" customHeight="1">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="E29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="I29" s="33" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="I29" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="M29" s="35" t="s">
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="M29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>7</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>5</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>13</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>125</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>126</v>
       </c>
@@ -1490,12 +1495,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>3</v>
       </c>
@@ -1526,7 +1531,7 @@
       <c r="T39" s="21"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -1576,40 +1581,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A41" s="33" t="s">
+    <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="33" t="s">
+      <c r="Q41" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
       <c r="T41" s="22"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -1623,7 +1628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>50</v>
       </c>
@@ -1642,17 +1647,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75">
+    <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <v>5</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -1746,50 +1751,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="33" t="s">
+    <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="33" t="s">
+      <c r="M51" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="37" t="s">
+      <c r="Q51" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
       <c r="T51" s="22"/>
-      <c r="U51" s="33" t="s">
+      <c r="U51" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="33" t="s">
+      <c r="Y51" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>66</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>67</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>18</v>
       </c>
@@ -1852,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>5</v>
       </c>
@@ -1869,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>18</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>67</v>
       </c>
@@ -1900,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>66</v>
       </c>
@@ -1917,7 +1922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R59" s="26" t="s">
         <v>85</v>
       </c>
@@ -1925,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>123</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>124</v>
       </c>
@@ -1944,7 +1949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>122</v>
       </c>
@@ -1952,12 +1957,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R63" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R64" s="26" t="s">
         <v>79</v>
       </c>
@@ -1965,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="6:18">
+    <row r="65" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>10</v>
       </c>
@@ -1973,62 +1978,62 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="6:18">
+    <row r="66" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R66" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="6:18">
+    <row r="67" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R67" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="6:18">
+    <row r="68" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R68" s="26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="6:18">
+    <row r="69" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R69" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="6:18">
+    <row r="70" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R70" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="6:18">
+    <row r="71" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R71" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="6:18">
+    <row r="72" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R72" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="6:18">
+    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R73" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="6:18">
+    <row r="74" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R74" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="6:18">
+    <row r="75" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R75" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15.75">
+    <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6">
         <v>2</v>
@@ -2071,7 +2076,7 @@
       </c>
       <c r="AA82" s="6"/>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>20</v>
       </c>
@@ -2126,49 +2131,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
-      <c r="A84" s="34" t="s">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="22"/>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="37" t="s">
+      <c r="I84" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
       <c r="L84" s="23"/>
-      <c r="M84" s="33" t="s">
+      <c r="M84" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
       <c r="P84" s="22"/>
-      <c r="Q84" s="37" t="s">
+      <c r="Q84" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
       <c r="T84" s="22"/>
-      <c r="U84" s="33" t="s">
+      <c r="U84" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="Y84" s="33" t="s">
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="Y84" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>54</v>
       </c>
@@ -2180,7 +2185,7 @@
       </c>
       <c r="R85" s="26"/>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>15</v>
       </c>
@@ -2192,7 +2197,7 @@
       </c>
       <c r="R86" s="26"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>38</v>
       </c>
@@ -2201,46 +2206,46 @@
       </c>
       <c r="R87" s="26"/>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
         <v>95</v>
       </c>
       <c r="R88" s="26"/>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
         <v>96</v>
       </c>
       <c r="R89" s="26"/>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
         <v>97</v>
       </c>
       <c r="R90" s="26"/>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
         <v>98</v>
       </c>
       <c r="R91" s="17"/>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
         <v>99</v>
       </c>
       <c r="R92" s="17"/>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>104</v>
       </c>
       <c r="R93" s="17"/>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R94" s="17"/>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>9</v>
       </c>
@@ -2257,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>20</v>
       </c>
@@ -2281,7 +2286,7 @@
       </c>
       <c r="R96" s="17"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B97" s="29" t="s">
         <v>24</v>
       </c>
@@ -2293,79 +2298,79 @@
       </c>
       <c r="R97" s="17"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
         <v>94</v>
       </c>
       <c r="R98" s="17"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J99" t="s">
         <v>73</v>
       </c>
       <c r="R99" s="17"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J100" t="s">
         <v>10</v>
       </c>
       <c r="R100" s="17"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J101" t="s">
         <v>95</v>
       </c>
       <c r="R101" s="17"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
         <v>96</v>
       </c>
       <c r="R102" s="17"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
         <v>101</v>
       </c>
       <c r="R103" s="17"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J104" t="s">
         <v>97</v>
       </c>
       <c r="R104" s="17"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J105" t="s">
         <v>102</v>
       </c>
       <c r="R105" s="17"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J106" t="s">
         <v>87</v>
       </c>
       <c r="R106" s="17"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J107" t="s">
         <v>103</v>
       </c>
       <c r="R107" s="17"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="R108" s="17"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J109" s="17">
         <v>3</v>
       </c>
       <c r="R109" s="17"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I110" s="2" t="s">
         <v>105</v>
       </c>
@@ -2376,63 +2381,81 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J111" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J112" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="25" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="E41:G41"/>
     <mergeCell ref="M84:O84"/>
     <mergeCell ref="Q84:S84"/>
     <mergeCell ref="U84:W84"/>
@@ -2449,24 +2472,6 @@
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="I41:K41"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
   </mergeCells>
   <conditionalFormatting sqref="R52:R75">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
@@ -2480,15 +2485,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -2515,12 +2520,12 @@
     <col min="24" max="24" width="7.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="18.75">
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>4</v>
@@ -2548,7 +2553,7 @@
       <c r="T3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="4" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
@@ -2608,34 +2613,34 @@
       </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="24" customHeight="1">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="E5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="I5" s="37" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="I5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="M5" s="33" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="M5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="Q5" s="35" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="Q5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -2660,72 +2665,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>4</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>5</v>
       </c>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>26</v>
       </c>
       <c r="R14" s="32"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="18" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="6">
         <v>13</v>
@@ -2747,7 +2752,7 @@
       <c r="T18" s="15"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="19" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -2791,24 +2796,24 @@
       </c>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="E20" s="37" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="E20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="I20" s="35" t="s">
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="I20" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>0</v>
       </c>
@@ -2816,22 +2821,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="27" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="6">
         <v>13</v>
@@ -2856,7 +2861,7 @@
       <c r="T27" s="15"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75">
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
@@ -2898,29 +2903,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="32.25" customHeight="1">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="E29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="I29" s="33" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="I29" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="M29" s="35" t="s">
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="M29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>38</v>
       </c>
@@ -2947,22 +2952,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>3</v>
       </c>
@@ -2985,7 +2990,7 @@
       <c r="T39" s="21"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -3035,40 +3040,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A41" s="33" t="s">
+    <row r="41" spans="1:24" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="33" t="s">
+      <c r="Q41" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
       <c r="T41" s="22"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>50</v>
       </c>
@@ -3101,12 +3106,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75">
+    <row r="49" spans="1:27" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <v>5</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3200,50 +3205,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="33" t="s">
+    <row r="51" spans="1:27" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="33" t="s">
+      <c r="M51" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="37" t="s">
+      <c r="Q51" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
       <c r="T51" s="22"/>
-      <c r="U51" s="33" t="s">
+      <c r="U51" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="33" t="s">
+      <c r="Y51" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>66</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>18</v>
       </c>
@@ -3285,7 +3290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>69</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>70</v>
       </c>
@@ -3309,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>17</v>
       </c>
@@ -3317,97 +3322,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R59" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R60" s="32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R61" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R62" s="32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R63" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R64" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="18:18">
+    <row r="65" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R65" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="18:18">
+    <row r="66" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R66" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="18:18">
+    <row r="67" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R67" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="18:18">
+    <row r="68" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R68" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="18:18">
+    <row r="69" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R69" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="18:18">
+    <row r="70" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R70" s="32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="18:18">
+    <row r="71" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R71" s="32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="18:18">
+    <row r="72" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R72" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="18:18">
+    <row r="73" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R73" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="18:18">
+    <row r="74" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R74" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="18:18">
+    <row r="75" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R75" s="32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15.75">
+    <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6">
         <v>2</v>
@@ -3450,7 +3455,7 @@
       </c>
       <c r="AA82" s="6"/>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>20</v>
       </c>
@@ -3505,49 +3510,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
-      <c r="A84" s="34" t="s">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="22"/>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="37" t="s">
+      <c r="I84" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
       <c r="L84" s="23"/>
-      <c r="M84" s="33" t="s">
+      <c r="M84" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
       <c r="P84" s="22"/>
-      <c r="Q84" s="37" t="s">
+      <c r="Q84" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
       <c r="T84" s="22"/>
-      <c r="U84" s="33" t="s">
+      <c r="U84" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="Y84" s="33" t="s">
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="Y84" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>54</v>
       </c>
@@ -3559,7 +3564,7 @@
       </c>
       <c r="R85" s="32"/>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>15</v>
       </c>
@@ -3571,7 +3576,7 @@
       </c>
       <c r="R86" s="32"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>38</v>
       </c>
@@ -3580,46 +3585,46 @@
       </c>
       <c r="R87" s="32"/>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
         <v>95</v>
       </c>
       <c r="R88" s="32"/>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
         <v>96</v>
       </c>
       <c r="R89" s="32"/>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
         <v>97</v>
       </c>
       <c r="R90" s="32"/>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
         <v>98</v>
       </c>
       <c r="R91" s="32"/>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
         <v>99</v>
       </c>
       <c r="R92" s="32"/>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>104</v>
       </c>
       <c r="R93" s="32"/>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R94" s="32"/>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>9</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>20</v>
       </c>
@@ -3660,7 +3665,7 @@
       </c>
       <c r="R96" s="32"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B97" s="30" t="s">
         <v>24</v>
       </c>
@@ -3672,79 +3677,79 @@
       </c>
       <c r="R97" s="32"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
         <v>94</v>
       </c>
       <c r="R98" s="32"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J99" t="s">
         <v>73</v>
       </c>
       <c r="R99" s="32"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J100" t="s">
         <v>10</v>
       </c>
       <c r="R100" s="32"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J101" t="s">
         <v>95</v>
       </c>
       <c r="R101" s="32"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
         <v>96</v>
       </c>
       <c r="R102" s="32"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
         <v>101</v>
       </c>
       <c r="R103" s="32"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J104" t="s">
         <v>97</v>
       </c>
       <c r="R104" s="32"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J105" t="s">
         <v>102</v>
       </c>
       <c r="R105" s="32"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J106" t="s">
         <v>87</v>
       </c>
       <c r="R106" s="32"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J107" t="s">
         <v>103</v>
       </c>
       <c r="R107" s="32"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="R108" s="32"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J109" s="32">
         <v>3</v>
       </c>
       <c r="R109" s="32"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I110" s="2" t="s">
         <v>105</v>
       </c>
@@ -3755,63 +3760,80 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J111" s="31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J112" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="Q41:S41"/>
     <mergeCell ref="U51:W51"/>
     <mergeCell ref="Y51:AA51"/>
     <mergeCell ref="A84:C84"/>
@@ -3821,28 +3843,11 @@
     <mergeCell ref="Q84:S84"/>
     <mergeCell ref="U84:W84"/>
     <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="Q41:S41"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="M51:O51"/>
     <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="R52:R75">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
